--- a/data/trans_bre/P25A_12_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>75,82%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>126,54%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>105,78%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>68,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,79</t>
+          <t>-1,0; 4,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,86</t>
+          <t>-0,74; 4,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,47</t>
+          <t>0,42; 5,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 13,43</t>
+          <t>3,74; 9,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 168,98</t>
+          <t>4,52; 10,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 165,46</t>
+          <t>0,52; 6,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 199,85</t>
+          <t>-19,92; 156,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 31,56</t>
+          <t>-14,26; 142,21</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 183,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>57,53; 224,79</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50,84; 183,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 168,09</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>265,43%</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>146,15%</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>137,96%</t>
+          <t>267,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>145,13%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>150,03%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>318,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>101,75%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>182,44%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,87</t>
+          <t>3,33; 10,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,89</t>
+          <t>2,62; 7,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,96</t>
+          <t>2,11; 8,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 27,47</t>
+          <t>4,99; 15,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,79; 760,09</t>
+          <t>1,55; 12,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,88; 324,31</t>
+          <t>4,84; 12,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,33; 327,63</t>
+          <t>89,93; 763,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 69,14</t>
+          <t>49,18; 316,8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46,31; 399,74</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>93,37; 1067,34</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14,69; 276,82</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>73,27; 350,16</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>150,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>108,65%</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>145,03%</t>
+          <t>37,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>104,98%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>141,83%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>83,08%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 15,08</t>
+          <t>-3,66; 6,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 10,12</t>
+          <t>-0,99; 10,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 10,13</t>
+          <t>0,09; 10,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 1039,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 533,89</t>
+          <t>-3,1; 10,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 845,74</t>
+          <t>-59,94; 442,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>-37,23; 443,18</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-11,63; 885,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-44,27; 420,03</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>116,24%</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>111,5%</t>
+          <t>102,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>86,06%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>108,15%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>156,52%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>105,13%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>111,14%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,92</t>
+          <t>1,64; 5,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,45</t>
+          <t>1,6; 5,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,55</t>
+          <t>2,1; 5,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 13,15</t>
+          <t>4,97; 9,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,15; 230,45</t>
+          <t>4,79; 10,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,88; 175,03</t>
+          <t>3,47; 8,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,79; 203,69</t>
+          <t>29,41; 199,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 28,87</t>
+          <t>28,65; 166,36</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43,25; 193,11</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>83,81; 266,96</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>59,1; 181,11</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>50,53; 188,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_12_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,47</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>47,36%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>47,4%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>75,82%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>126,54%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>105,78%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>68,35%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.327075145299605</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.258337206176579</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.038869685798306</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.474664779317488</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>7.616191883511894</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3.879888818193747</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.5502791378741455</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4906292968727207</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.7150863666734796</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.265428597014688</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1.059029034621515</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.6806339766326284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 4,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 4,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 5,57</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,74; 9,2</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>4,52; 10,55</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 6,94</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-19,92; 156,77</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-14,26; 142,21</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 183,24</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>57,53; 224,79</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>50,84; 183,37</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 168,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.8728568259725727</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7577504720976592</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.1261793780112082</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.74172854935266</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>4.557704978875066</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.347362295866539</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2068453120167101</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1302511827374362</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.009861392133915613</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.5752911472437763</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.5088954229383489</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.05078903653186097</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.779903301379756</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.769502326778368</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.430941024647067</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.199680609667626</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>10.57056000972027</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>6.892045072186895</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.60251829906659</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.511397795821691</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.804134993247537</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.247914343559885</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.839295982441825</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.680405734576113</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,63</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,89</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>267,99%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>145,13%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>150,03%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>318,22%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>101,75%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>182,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 10,01</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 7,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 8,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,99; 15,82</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 12,92</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 12,67</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>89,93; 763,32</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>49,18; 316,8</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>46,31; 399,74</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>93,37; 1067,34</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>14,69; 276,82</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>73,27; 350,16</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.273810605993323</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.910979432289355</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.373703550644234</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.86100013699733</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>7.056466201479322</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>8.986670369202347</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.032019330353418</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.388166963417652</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.384658462535921</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>3.182188589580124</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1.036894995653642</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.834979120739157</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,03</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>37,23%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>104,98%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>141,83%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>83,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.126367320524813</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.367050229058751</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.882689413906763</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.989768693730237</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.682792492710742</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>4.930118196873344</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.3112380812275714</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.4095387704108919</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3994570617671083</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.9337316184181349</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.1697057780443995</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.738299504577749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 6,12</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 10,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 10,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-3,1; 10,17</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-59,94; 442,68</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-37,23; 443,18</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-11,63; 885,56</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-44,27; 420,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.627082678639873</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.867593287162039</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.960820801315434</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>15.82492664437164</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.95010403978326</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>12.77645736850075</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.444519741768089</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.050550551143474</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.691874126039083</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>10.67338182952199</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>2.79302212965904</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>3.506604001382203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,95</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,25</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>102,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>86,06%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>108,15%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>156,52%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>105,13%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>111,14%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.404289162212391</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.851722422516351</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.996593457106139</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>4.446483005669502</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.014830524165668</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.107154507259232</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.503745027349073</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.9541375823601409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 5,5</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 5,26</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 5,82</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,97; 9,76</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 10,27</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 8,16</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>29,41; 199,48</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>28,65; 166,36</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>43,25; 193,11</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>83,81; 266,96</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>59,1; 181,11</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>50,53; 188,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.752559975058658</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.8413526733861835</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1461030860177499</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-2.403854808391395</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4781722226066065</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3515204560876578</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1232671134720806</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.4105538400399612</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.83599021883359</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.20395135697626</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.42760061348145</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>10.63353889642148</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>8.279752022689131</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>4.778859629525559</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>9.743645091323256</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>4.674354065056172</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.613606585817438</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.583240689495344</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.800681691407655</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.254034199403855</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.500982885884857</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>5.93288718335288</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.040785961170403</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8633012545193589</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.027453752707898</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.565238861137883</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>1.056729235444558</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.130084534881149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.533655275495451</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.58587827021195</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.851620019439975</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4.966397912033861</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>4.872493923444282</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>3.457114441666548</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.2939302102014259</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.288051608382506</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.3808766069402422</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.8381335632863753</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.5875606901035013</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.5172073809881412</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.531671044407696</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.293882119614529</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.649030619864893</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.759254760806977</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.33570008038808</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>8.231594633749872</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.150189535002323</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.71015409619439</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.879339915457237</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.669561534513855</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.82105053227213</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.888772875349382</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
